--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd5l-Cd5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd5l-Cd5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.795052000000001</v>
+        <v>2.448882</v>
       </c>
       <c r="H2">
-        <v>20.385156</v>
+        <v>7.346646</v>
       </c>
       <c r="I2">
-        <v>0.6049503343582542</v>
+        <v>0.3254773310529772</v>
       </c>
       <c r="J2">
-        <v>0.6049503343582541</v>
+        <v>0.3254773310529772</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7920173333333334</v>
+        <v>1.123359666666667</v>
       </c>
       <c r="N2">
-        <v>2.376052</v>
+        <v>3.370079</v>
       </c>
       <c r="O2">
-        <v>0.1802777704012534</v>
+        <v>0.1748609861803909</v>
       </c>
       <c r="P2">
-        <v>0.1802777704012534</v>
+        <v>0.1748609861803909</v>
       </c>
       <c r="Q2">
-        <v>5.381798964901334</v>
+        <v>2.750975267226</v>
       </c>
       <c r="R2">
-        <v>48.43619068411201</v>
+        <v>24.758777405034</v>
       </c>
       <c r="S2">
-        <v>0.1090590974815988</v>
+        <v>0.05691328708728516</v>
       </c>
       <c r="T2">
-        <v>0.1090590974815988</v>
+        <v>0.05691328708728514</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.795052000000001</v>
+        <v>2.448882</v>
       </c>
       <c r="H3">
-        <v>20.385156</v>
+        <v>7.346646</v>
       </c>
       <c r="I3">
-        <v>0.6049503343582542</v>
+        <v>0.3254773310529772</v>
       </c>
       <c r="J3">
-        <v>0.6049503343582541</v>
+        <v>0.3254773310529772</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>4.46607</v>
       </c>
       <c r="O3">
-        <v>0.3388533340414797</v>
+        <v>0.2317279222684864</v>
       </c>
       <c r="P3">
-        <v>0.3388533340414797</v>
+        <v>0.2317279222684864</v>
       </c>
       <c r="Q3">
-        <v>10.11572596188</v>
+        <v>3.64562614458</v>
       </c>
       <c r="R3">
-        <v>91.04153365692001</v>
+        <v>32.81063530122</v>
       </c>
       <c r="S3">
-        <v>0.2049894377268023</v>
+        <v>0.07542218567039871</v>
       </c>
       <c r="T3">
-        <v>0.2049894377268023</v>
+        <v>0.0754221856703987</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.795052000000001</v>
+        <v>2.448882</v>
       </c>
       <c r="H4">
-        <v>20.385156</v>
+        <v>7.346646</v>
       </c>
       <c r="I4">
-        <v>0.6049503343582542</v>
+        <v>0.3254773310529772</v>
       </c>
       <c r="J4">
-        <v>0.6049503343582541</v>
+        <v>0.3254773310529772</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4248016666666666</v>
+        <v>1.949056333333333</v>
       </c>
       <c r="N4">
-        <v>1.274405</v>
+        <v>5.847169</v>
       </c>
       <c r="O4">
-        <v>0.09669270369007467</v>
+        <v>0.3033880623283341</v>
       </c>
       <c r="P4">
-        <v>0.09669270369007468</v>
+        <v>0.3033880623283341</v>
       </c>
       <c r="Q4">
-        <v>2.886549414686666</v>
+        <v>4.773008971685999</v>
       </c>
       <c r="R4">
-        <v>25.97894473218</v>
+        <v>42.957080745174</v>
       </c>
       <c r="S4">
-        <v>0.05849428342731427</v>
+        <v>0.09874593679996048</v>
       </c>
       <c r="T4">
-        <v>0.05849428342731427</v>
+        <v>0.09874593679996047</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.795052000000001</v>
+        <v>2.448882</v>
       </c>
       <c r="H5">
-        <v>20.385156</v>
+        <v>7.346646</v>
       </c>
       <c r="I5">
-        <v>0.6049503343582542</v>
+        <v>0.3254773310529772</v>
       </c>
       <c r="J5">
-        <v>0.6049503343582541</v>
+        <v>0.3254773310529772</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.26123</v>
+        <v>0.3313766666666667</v>
       </c>
       <c r="N5">
-        <v>0.78369</v>
+        <v>0.9941300000000001</v>
       </c>
       <c r="O5">
-        <v>0.05946077185421796</v>
+        <v>0.05158174398627213</v>
       </c>
       <c r="P5">
-        <v>0.05946077185421796</v>
+        <v>0.05158174398627213</v>
       </c>
       <c r="Q5">
-        <v>1.77507143396</v>
+        <v>0.8115023542200001</v>
       </c>
       <c r="R5">
-        <v>15.97564290564</v>
+        <v>7.30352118798</v>
       </c>
       <c r="S5">
-        <v>0.03597081381440902</v>
+        <v>0.01678868836370981</v>
       </c>
       <c r="T5">
-        <v>0.03597081381440902</v>
+        <v>0.0167886883637098</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.795052000000001</v>
+        <v>2.448882</v>
       </c>
       <c r="H6">
-        <v>20.385156</v>
+        <v>7.346646</v>
       </c>
       <c r="I6">
-        <v>0.6049503343582542</v>
+        <v>0.3254773310529772</v>
       </c>
       <c r="J6">
-        <v>0.6049503343582541</v>
+        <v>0.3254773310529772</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.426577666666667</v>
+        <v>1.531818666666667</v>
       </c>
       <c r="N6">
-        <v>4.279733</v>
+        <v>4.595456</v>
       </c>
       <c r="O6">
-        <v>0.3247154200129742</v>
+        <v>0.2384412852365166</v>
       </c>
       <c r="P6">
-        <v>0.3247154200129743</v>
+        <v>0.2384412852365165</v>
       </c>
       <c r="Q6">
-        <v>9.693669427038669</v>
+        <v>3.751243160064</v>
       </c>
       <c r="R6">
-        <v>87.24302484334801</v>
+        <v>33.761188440576</v>
       </c>
       <c r="S6">
-        <v>0.1964367019081297</v>
+        <v>0.07760723313162307</v>
       </c>
       <c r="T6">
-        <v>0.1964367019081297</v>
+        <v>0.07760723313162304</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>4.437361</v>
+        <v>5.075089</v>
       </c>
       <c r="H7">
-        <v>13.312083</v>
+        <v>15.225267</v>
       </c>
       <c r="I7">
-        <v>0.3950496656417459</v>
+        <v>0.6745226689470228</v>
       </c>
       <c r="J7">
-        <v>0.3950496656417459</v>
+        <v>0.6745226689470227</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7920173333333334</v>
+        <v>1.123359666666667</v>
       </c>
       <c r="N7">
-        <v>2.376052</v>
+        <v>3.370079</v>
       </c>
       <c r="O7">
-        <v>0.1802777704012534</v>
+        <v>0.1748609861803909</v>
       </c>
       <c r="P7">
-        <v>0.1802777704012534</v>
+        <v>0.1748609861803909</v>
       </c>
       <c r="Q7">
-        <v>3.514466826257333</v>
+        <v>5.701150287343667</v>
       </c>
       <c r="R7">
-        <v>31.630201436316</v>
+        <v>51.310352586093</v>
       </c>
       <c r="S7">
-        <v>0.07121867291965459</v>
+        <v>0.1179476990931057</v>
       </c>
       <c r="T7">
-        <v>0.0712186729196546</v>
+        <v>0.1179476990931057</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>4.437361</v>
+        <v>5.075089</v>
       </c>
       <c r="H8">
-        <v>13.312083</v>
+        <v>15.225267</v>
       </c>
       <c r="I8">
-        <v>0.3950496656417459</v>
+        <v>0.6745226689470228</v>
       </c>
       <c r="J8">
-        <v>0.3950496656417459</v>
+        <v>0.6745226689470227</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>4.46607</v>
       </c>
       <c r="O8">
-        <v>0.3388533340414797</v>
+        <v>0.2317279222684864</v>
       </c>
       <c r="P8">
-        <v>0.3388533340414797</v>
+        <v>0.2317279222684864</v>
       </c>
       <c r="Q8">
-        <v>6.60585494709</v>
+        <v>7.555234243410001</v>
       </c>
       <c r="R8">
-        <v>59.45269452381</v>
+        <v>67.99710819069</v>
       </c>
       <c r="S8">
-        <v>0.1338638963146774</v>
+        <v>0.1563057365980877</v>
       </c>
       <c r="T8">
-        <v>0.1338638963146774</v>
+        <v>0.1563057365980877</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>4.437361</v>
+        <v>5.075089</v>
       </c>
       <c r="H9">
-        <v>13.312083</v>
+        <v>15.225267</v>
       </c>
       <c r="I9">
-        <v>0.3950496656417459</v>
+        <v>0.6745226689470228</v>
       </c>
       <c r="J9">
-        <v>0.3950496656417459</v>
+        <v>0.6745226689470227</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4248016666666666</v>
+        <v>1.949056333333333</v>
       </c>
       <c r="N9">
-        <v>1.274405</v>
+        <v>5.847169</v>
       </c>
       <c r="O9">
-        <v>0.09669270369007467</v>
+        <v>0.3033880623283341</v>
       </c>
       <c r="P9">
-        <v>0.09669270369007468</v>
+        <v>0.3033880623283341</v>
       </c>
       <c r="Q9">
-        <v>1.884998348401666</v>
+        <v>9.891634357680333</v>
       </c>
       <c r="R9">
-        <v>16.964985135615</v>
+        <v>89.02470921912301</v>
       </c>
       <c r="S9">
-        <v>0.03819842026276041</v>
+        <v>0.2046421255283736</v>
       </c>
       <c r="T9">
-        <v>0.03819842026276041</v>
+        <v>0.2046421255283736</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>4.437361</v>
+        <v>5.075089</v>
       </c>
       <c r="H10">
-        <v>13.312083</v>
+        <v>15.225267</v>
       </c>
       <c r="I10">
-        <v>0.3950496656417459</v>
+        <v>0.6745226689470228</v>
       </c>
       <c r="J10">
-        <v>0.3950496656417459</v>
+        <v>0.6745226689470227</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.26123</v>
+        <v>0.3313766666666667</v>
       </c>
       <c r="N10">
-        <v>0.78369</v>
+        <v>0.9941300000000001</v>
       </c>
       <c r="O10">
-        <v>0.05946077185421796</v>
+        <v>0.05158174398627213</v>
       </c>
       <c r="P10">
-        <v>0.05946077185421796</v>
+        <v>0.05158174398627213</v>
       </c>
       <c r="Q10">
-        <v>1.15917181403</v>
+        <v>1.681766075856667</v>
       </c>
       <c r="R10">
-        <v>10.43254632627</v>
+        <v>15.13589468271</v>
       </c>
       <c r="S10">
-        <v>0.02348995803980894</v>
+        <v>0.03479305562256232</v>
       </c>
       <c r="T10">
-        <v>0.02348995803980894</v>
+        <v>0.03479305562256231</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>4.437361</v>
+        <v>5.075089</v>
       </c>
       <c r="H11">
-        <v>13.312083</v>
+        <v>15.225267</v>
       </c>
       <c r="I11">
-        <v>0.3950496656417459</v>
+        <v>0.6745226689470228</v>
       </c>
       <c r="J11">
-        <v>0.3950496656417459</v>
+        <v>0.6745226689470227</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.426577666666667</v>
+        <v>1.531818666666667</v>
       </c>
       <c r="N11">
-        <v>4.279733</v>
+        <v>4.595456</v>
       </c>
       <c r="O11">
-        <v>0.3247154200129742</v>
+        <v>0.2384412852365166</v>
       </c>
       <c r="P11">
-        <v>0.3247154200129743</v>
+        <v>0.2384412852365165</v>
       </c>
       <c r="Q11">
-        <v>6.330240101537667</v>
+        <v>7.774116065194668</v>
       </c>
       <c r="R11">
-        <v>56.972160913839</v>
+        <v>69.96704458675201</v>
       </c>
       <c r="S11">
-        <v>0.1282787181048445</v>
+        <v>0.1608340521048935</v>
       </c>
       <c r="T11">
-        <v>0.1282787181048446</v>
+        <v>0.1608340521048935</v>
       </c>
     </row>
   </sheetData>
